--- a/usuarios_creados.xlsx
+++ b/usuarios_creados.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,6 +510,174 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aldair Rivera</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>202500001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>49964191</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Dora</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>49964191</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>perezemerson85@gmail.com</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>fasdfasdfasdf</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>202500002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>78965412</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>asdfasdf</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>41256398</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>a@gmail.com</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>adfasf</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>zdgfasdfasdf</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>202500003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14785236</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>asdfasdfsadf</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>14785236</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>14785236@gmail.com</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>dsfadsafdsfaf</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>weradfasd</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>202500004</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14785236</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>adfadfadsfasdf</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>14785236</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>14785236dddd@gmail.com</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>asdfasdfae</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/usuarios_creados.xlsx
+++ b/usuarios_creados.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -678,6 +678,48 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>asdfasdfasdf</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>202500005</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>78965412</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>asdfasdfasdfsfcsc</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>74125896</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>afsdfasdfa@gamil.com</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>asdfasdfasdfsd</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
